--- a/housecost.xlsx
+++ b/housecost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\housecost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269A2424-ED9B-4690-BC67-FFF4BBB1779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A2CC3-9FFB-416A-81CB-12F4D83869BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D453A71-938C-4973-B618-03964B3B7555}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>تاریخ</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>1401/02/29</t>
+  </si>
+  <si>
+    <t>1401/04/04</t>
+  </si>
+  <si>
+    <t>1401/04/10</t>
+  </si>
+  <si>
+    <t>قبض‌آب</t>
+  </si>
+  <si>
+    <t>ماهانه نظافتچی</t>
   </si>
 </sst>
 </file>
@@ -621,7 +633,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
@@ -801,30 +813,54 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7264000</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>32995830</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>29995830</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2277000</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>27718830</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
